--- a/8. Harmonising standards/Create a project/Dokumentation_Mandy.xlsx
+++ b/8. Harmonising standards/Create a project/Dokumentation_Mandy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3199C694-9FCF-4805-92F1-FF400DD718D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65484A-CE89-4151-8320-46674580B792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5025" tabRatio="837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5025" tabRatio="837" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thema1" sheetId="45" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <definedName name="calc.spProzedur2">PrzVerzeichnis!$A$19</definedName>
     <definedName name="calc.spProzedur3">PrzVerzeichnis!$A$35</definedName>
     <definedName name="calc.spProzedur4">PrzVerzeichnis!$A$46</definedName>
-    <definedName name="control.spProzedur1">PrzVerzeichnis!$A$78</definedName>
+    <definedName name="control.spProzedur1">PrzVerzeichnis!$A$107</definedName>
     <definedName name="import.spProzedur1">PrzVerzeichnis!$A$54</definedName>
-    <definedName name="load.spProzedur1">PrzVerzeichnis!$A$64</definedName>
+    <definedName name="load.spProzedur1">PrzVerzeichnis!$A$92</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4057,6 +4057,3495 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343276</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Gruppieren 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D29E1F-82C2-4647-BAC6-3055A8EB5C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7134226" y="12287251"/>
+          <a:ext cx="2066925" cy="685799"/>
+          <a:chOff x="4747846" y="2850900"/>
+          <a:chExt cx="2066925" cy="590738"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rechteck: abgerundete Ecken 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7D6F38-F421-4FB5-8F91-9EB3C06DD0A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4747846" y="3048578"/>
+            <a:ext cx="2066925" cy="393060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#DATEN</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Datensammler für Übergabe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> an Folgeschritte</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Textfeld 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1840F914-6FF2-4C08-B844-8A0E5963CCBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5162183" y="2857713"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Temporäre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rechteck 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6181F2C-F8EF-43F3-84F7-28EF19AC9562}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4800234" y="2850900"/>
+            <a:ext cx="271462" cy="131275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>tmp</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Ellipse 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CD61A3-4A35-429A-A175-09E7B2901E49}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6514946" y="2936632"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rechteck: abgerundete Ecken 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AA9E7D-F005-413E-91E9-4BB777C3B68F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="11839575"/>
+          <a:ext cx="4162425" cy="4857750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>86170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343276</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FFCCD3-29E1-4F2B-9B45-0AD3CF45B322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5048250" y="12744895"/>
+          <a:ext cx="2085976" cy="1523555"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="203864"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>20810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BF6718-5FE8-48E8-A0DB-6980B7164684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3257551" y="11344720"/>
+          <a:ext cx="361950" cy="1315"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="203864"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Gruppieren 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F15D93-0021-49EB-9BA5-1188F8939BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="923926" y="10772775"/>
+          <a:ext cx="2333625" cy="914400"/>
+          <a:chOff x="1695450" y="5610225"/>
+          <a:chExt cx="2333625" cy="914400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="Gruppieren 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C5B210-B52A-41A9-8F03-2766B1B2AB4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1695450" y="5610225"/>
+            <a:ext cx="2333625" cy="914400"/>
+            <a:chOff x="7915275" y="11944350"/>
+            <a:chExt cx="2333625" cy="914400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Textfeld 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18764B8C-2675-4A8F-9615-CCABC561FA6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8105775" y="11963400"/>
+              <a:ext cx="1181100" cy="152400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Prozedur </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Rechteck 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1D55B2-17ED-4AA2-B98E-665EC5864DDF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7924800" y="11944350"/>
+              <a:ext cx="122726" cy="168519"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="900">
+                  <a:solidFill>
+                    <a:srgbClr val="203864"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>P</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Textfeld 16">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7820823-DE92-4F7C-8407-4587F2BFDF00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7915275" y="12176469"/>
+              <a:ext cx="2333625" cy="682281"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="203864"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="900" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="203864"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>calc.spProzedur1</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="203864"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Kalkuliert Planinvestitionswerte für alle Mandanten und Kostenstelle für alle Jahren, und Monaten in temporäre Tabelle</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Ellipse 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ED0175-8E27-4618-9C4C-D2399DFA0F25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3790950" y="5734050"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1895476</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Gruppieren 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA73345C-344A-4433-A822-1E4D9A1124C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3619501" y="10887076"/>
+          <a:ext cx="2066925" cy="685799"/>
+          <a:chOff x="4747846" y="2850900"/>
+          <a:chExt cx="2066925" cy="590738"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rechteck: abgerundete Ecken 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37774D6E-C8EB-4F78-A12C-A618EB06C8EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4747846" y="3048578"/>
+            <a:ext cx="2066925" cy="393060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#Invest</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Datensammler für Investwerte</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Textfeld 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0546ED38-536B-4309-8D28-392843659C65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5162183" y="2857713"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Temporäre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rechteck 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E67178-0701-4A7B-B247-679C056842E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4800234" y="2850900"/>
+            <a:ext cx="271462" cy="131275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="203864"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="203864"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>tmp</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Ellipse 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF4126B-10C2-4902-9743-6BAE94641426}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6514946" y="2936632"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Gruppieren 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EFE1FE-587A-4FBE-9870-11A36ACF5BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1152526" y="12077700"/>
+          <a:ext cx="1628775" cy="620486"/>
+          <a:chOff x="11091495" y="2315308"/>
+          <a:chExt cx="1628775" cy="620486"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rechteck: abgerundete Ecken 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEF8A05-9841-4AFB-AC80-9E64F90C0559}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11091495" y="2526901"/>
+            <a:ext cx="1628775" cy="408893"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sx_pf_fValues</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Alle Budgetwerte</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Textfeld 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C4FE03-3AD9-446B-9C84-DAE6027217EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11327788" y="2333395"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DataFactory Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rechteck 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9666E9DA-A05D-4B7A-966D-176F1E5317CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11115308" y="2315308"/>
+            <a:ext cx="147637" cy="152401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>T</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Ellipse 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57D34EF-A4EE-4114-A384-9ADE71FAD6EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12439495" y="2462580"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Gruppieren 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D12101-89B4-4620-98DC-6142EA2479C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3000376" y="12077700"/>
+          <a:ext cx="1628775" cy="620486"/>
+          <a:chOff x="11091495" y="2315308"/>
+          <a:chExt cx="1628775" cy="620486"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rechteck: abgerundete Ecken 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB0079E-D785-405A-BC4E-E134442D5CB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11091495" y="2526901"/>
+            <a:ext cx="1628775" cy="408893"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sx_pf_dProducts</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>alle Planungsbereiche</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Textfeld 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4957AF9-7C20-4DBE-B97D-972D7A2BE8C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11327788" y="2333395"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DataFactory Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rechteck 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921540D4-9AB6-428C-A1E6-EDCFA298FD15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11115308" y="2315308"/>
+            <a:ext cx="147637" cy="152401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>T</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Ellipse 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF8E7EF-C14C-4ADE-81E9-BF07FBC04487}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12439495" y="2462580"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Gruppieren 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39507D80-69B9-4F9E-AB10-811DCBFBA3D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1152526" y="12820650"/>
+          <a:ext cx="1628775" cy="620486"/>
+          <a:chOff x="11091495" y="2315308"/>
+          <a:chExt cx="1628775" cy="620486"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Rechteck: abgerundete Ecken 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC3B38F-F966-40A9-A91E-8D0802528396}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11091495" y="2526901"/>
+            <a:ext cx="1628775" cy="408893"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sx_pf_dFactories</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>alle Mandanten</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Textfeld 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3FFCE1-9788-4F1A-8E4C-8FBDEF39387B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11327788" y="2333395"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DataFactory Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rechteck 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E893912E-97DC-4FA2-820F-6C575BB147E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11115308" y="2315308"/>
+            <a:ext cx="147637" cy="152401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>T</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Ellipse 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06882940-6782-40A4-9F12-ED0A32E0E7E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12439495" y="2462580"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885826</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Gruppieren 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E4CE81-6C43-4E04-A24D-4B8DDFCED0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3048001" y="12801600"/>
+          <a:ext cx="1628775" cy="620486"/>
+          <a:chOff x="11091495" y="2315308"/>
+          <a:chExt cx="1628775" cy="620486"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Rechteck: abgerundete Ecken 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30F1B07-D2CF-45F6-AEA9-0BCAE450BCCD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11091495" y="2526901"/>
+            <a:ext cx="1628775" cy="408893"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sx_pf_dProductLines</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>alle Kostenstellen</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Textfeld 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AEE708-10E9-4E7B-8AD0-7E4BE0B5221E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11327788" y="2333395"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DataFactory Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Rechteck 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD44B23-A04B-43DE-B122-0298177F0D6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11115308" y="2315308"/>
+            <a:ext cx="147637" cy="152401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>T</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="Ellipse 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD7665D-F8EE-4BC7-876A-A0F0FEBF3F28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12439495" y="2462580"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Gruppieren 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9A6C56-2D32-4601-AAF7-7D28224D81FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1152526" y="13554075"/>
+          <a:ext cx="1943100" cy="620486"/>
+          <a:chOff x="11091495" y="2315308"/>
+          <a:chExt cx="1943100" cy="620486"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Rechteck: abgerundete Ecken 184">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13121412-BAF4-44F5-ACE0-94CA4ED108D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11091495" y="2526901"/>
+            <a:ext cx="1943100" cy="408893"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sx_pf_vGeschäftsjahresmapping</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mapping</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Kalender &amp; Geschäftsjahre</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="69B42E"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Textfeld 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2248CE-182C-451B-9EAC-1AB2484FF8D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11327788" y="2333395"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DataFactory Sicht</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rechteck 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A10C40-1D04-4D95-AE12-317237046FF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11115308" y="2315308"/>
+            <a:ext cx="147637" cy="152401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>V</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Ellipse 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D7A3D7-E9EB-4029-97C3-9A035185B1FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12753820" y="2453055"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>178253</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="Gruppieren 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A1DF9D-7856-4D92-9E83-2F92B5E4961C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1095376" y="15020925"/>
+          <a:ext cx="2066925" cy="864053"/>
+          <a:chOff x="2286000" y="7905750"/>
+          <a:chExt cx="2066925" cy="864053"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Zylinder 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C7F95F-941E-42FD-9CEB-C27830002055}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3143250" y="7905750"/>
+            <a:ext cx="800100" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="6350"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900"/>
+              <a:t>ppintegrator</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="50" name="Gruppieren 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0157E008-F422-43F7-BBD1-8728B05F1D32}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2286000" y="8153400"/>
+            <a:ext cx="2066925" cy="616403"/>
+            <a:chOff x="4747846" y="2819400"/>
+            <a:chExt cx="2066925" cy="616403"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="Rechteck: abgerundete Ecken 190">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F46B7-8D62-4471-B42E-8E9EC6C83AB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4747846" y="3048578"/>
+              <a:ext cx="2066925" cy="387225"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="900" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>sx_dwh_dKonten</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Alle Konten von Mandant</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> ...14</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="Textfeld 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43BE721-83D3-44D8-A5BB-B7E8F3159891}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4971683" y="2874122"/>
+              <a:ext cx="1181100" cy="122590"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Tabelle</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="Rechteck 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5680E1E7-116D-41B4-BFAF-1C86270D1669}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4771659" y="2819400"/>
+              <a:ext cx="122726" cy="168519"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>T</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Ellipse 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987A3A5D-32A4-45D7-9EEE-F2E7E48E99D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6486371" y="2946157"/>
+              <a:ext cx="175846" cy="161192"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1114426</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>153761</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="Gruppieren 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10050000-9911-4969-9D17-0B1EDF6A797C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3276601" y="13525500"/>
+          <a:ext cx="1628775" cy="620486"/>
+          <a:chOff x="11091495" y="2315308"/>
+          <a:chExt cx="1628775" cy="620486"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="Rechteck: abgerundete Ecken 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE12366-6B90-41DA-AAF9-43B5B916BEB4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11091495" y="2526901"/>
+            <a:ext cx="1628775" cy="408893"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>sx_pf_dValueSeries</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>alle Konten</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="Textfeld 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09758AE-EB3B-47EB-AC09-8860F1E30299}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11327788" y="2333395"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DataFactory Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="Rechteck 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7ECA0DC-545E-4EEC-B9B3-BCDF0CF701E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11115308" y="2315308"/>
+            <a:ext cx="147637" cy="152401"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="69B42E"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="69B42E"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>T</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Ellipse 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E3BAB1-28E6-4EDB-97B1-428E78E7AF05}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12439495" y="2462580"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1895476</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3343276</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>86170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Gerade Verbindung mit Pfeil 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F384A4B4-2F9E-4798-9FFE-0AFF876EBBB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686426" y="11344720"/>
+          <a:ext cx="1447800" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="203864"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="Gruppieren 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3DB867-FCF5-47C4-A220-557D5F7DE1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1104901" y="15944850"/>
+          <a:ext cx="2066925" cy="616403"/>
+          <a:chOff x="4747846" y="2819400"/>
+          <a:chExt cx="2066925" cy="616403"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="Rechteck: abgerundete Ecken 190">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1B1124-31B3-4389-B84C-E62A7577D2A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4747846" y="3048578"/>
+            <a:ext cx="2066925" cy="387225"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>wsb_FiBuKoReMasterEinzelbuchungen</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Alle FiBu-Einzelbelege</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="Textfeld 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738E32DD-8DEB-4817-B9ED-E1D3FF4962C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4971683" y="2874122"/>
+            <a:ext cx="1181100" cy="122590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tabelle</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="Rechteck 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDB8CF4-A73A-48F0-A1F2-B2648C1C1896}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4771659" y="2819400"/>
+            <a:ext cx="122726" cy="168519"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>T</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="Ellipse 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B11BD85-66DF-4DE2-860B-5EC30E4A98B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6486371" y="2946157"/>
+            <a:ext cx="175846" cy="161192"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17950,7 +21439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B454D17D-208B-41E5-B2B6-D0CEA1EDE6C8}">
   <dimension ref="A1:BT10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
@@ -18284,9 +21773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7590C7A-B5F5-45C8-87F1-3E2043944E5F}">
   <dimension ref="A1:BT38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18617,11 +22106,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F067B1D8-319F-47DE-8506-C30D017FDC70}">
-  <dimension ref="A1:BT78"/>
+  <dimension ref="A1:BT107"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18969,13 +22458,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>10</v>
       </c>
     </row>
